--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:31:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:31:04+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
